--- a/heuristic_times.xlsx
+++ b/heuristic_times.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveabertayac-my.sharepoint.com/personal/2301413_uad_ac_uk/Documents/3rd Year/CMP304/Monte Carlo Tree Search/Regicide-ISMCTS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="145" documentId="8_{00C6B2AA-278E-CF49-8C1A-74E1F5A6689E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04BE3EDE-0395-BE4F-8E09-87F74911756C}"/>
+  <xr:revisionPtr revIDLastSave="146" documentId="8_{00C6B2AA-278E-CF49-8C1A-74E1F5A6689E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67E9F528-EA57-A54E-BC2C-E875E6CB3CF6}"/>
   <bookViews>
-    <workbookView xWindow="6340" yWindow="3040" windowWidth="17780" windowHeight="24000" xr2:uid="{C7AEF272-C06B-8846-82CC-6C0368F0A76A}"/>
+    <workbookView xWindow="3740" yWindow="17660" windowWidth="17780" windowHeight="24000" xr2:uid="{C7AEF272-C06B-8846-82CC-6C0368F0A76A}"/>
   </bookViews>
   <sheets>
     <sheet name="heuristic_times" sheetId="2" r:id="rId1"/>
@@ -4089,7 +4089,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4423,7 +4423,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="166" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
